--- a/artfynd/Vitstensberget artfynd.xlsx
+++ b/artfynd/Vitstensberget artfynd.xlsx
@@ -1123,10 +1123,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16944483</v>
+        <v>56606366</v>
       </c>
       <c r="B6" t="n">
-        <v>91263</v>
+        <v>91541</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1134,21 +1134,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>698376</v>
+        <v>698672</v>
       </c>
       <c r="R6" t="n">
-        <v>7096870</v>
+        <v>7097528</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1204,41 +1204,26 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56606366</v>
+        <v>54066384</v>
       </c>
       <c r="B7" t="n">
-        <v>91541</v>
+        <v>91195</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1246,21 +1231,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>112</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1270,13 +1255,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>698672</v>
+        <v>699008</v>
       </c>
       <c r="R7" t="n">
-        <v>7097528</v>
+        <v>7097081</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1300,12 +1285,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1316,26 +1311,41 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54066366</v>
+        <v>54066401</v>
       </c>
       <c r="B8" t="n">
-        <v>82792</v>
+        <v>56840</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1343,34 +1353,43 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1312</v>
+        <v>102612</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Vitstensberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>698407</v>
+        <v>698420</v>
       </c>
       <c r="R8" t="n">
-        <v>7096950</v>
+        <v>7097103</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1402,7 +1421,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1412,7 +1431,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1423,21 +1442,6 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1454,10 +1458,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54066382</v>
+        <v>54066366</v>
       </c>
       <c r="B9" t="n">
-        <v>80084</v>
+        <v>82792</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1465,21 +1469,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1489,10 +1493,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>698692</v>
+        <v>698407</v>
       </c>
       <c r="R9" t="n">
-        <v>7096610</v>
+        <v>7096950</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1524,7 +1528,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1534,7 +1538,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1548,17 +1552,17 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1576,10 +1580,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>54066384</v>
+        <v>54066382</v>
       </c>
       <c r="B10" t="n">
-        <v>91195</v>
+        <v>80084</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1587,21 +1591,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>112</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1611,10 +1615,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>699008</v>
+        <v>698692</v>
       </c>
       <c r="R10" t="n">
-        <v>7097081</v>
+        <v>7096610</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1646,7 +1650,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1656,7 +1660,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1670,17 +1674,17 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1698,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54066401</v>
+        <v>16944483</v>
       </c>
       <c r="B11" t="n">
-        <v>56840</v>
+        <v>91263</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1709,46 +1713,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102612</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Vitstensberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>698420</v>
+        <v>698376</v>
       </c>
       <c r="R11" t="n">
-        <v>7097103</v>
+        <v>7096870</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1772,22 +1767,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>08:00</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>13:00</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1798,6 +1783,21 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1936,32 +1936,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56606369</v>
+        <v>16944407</v>
       </c>
       <c r="B13" t="n">
-        <v>79012</v>
+        <v>80118</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>185</v>
+        <v>6463</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>698722</v>
+        <v>698956</v>
       </c>
       <c r="R13" t="n">
-        <v>7097436</v>
+        <v>7097107</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2017,48 +2017,63 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16944407</v>
+        <v>56606369</v>
       </c>
       <c r="B14" t="n">
-        <v>80118</v>
+        <v>79012</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6463</v>
+        <v>185</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2068,13 +2083,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>698956</v>
+        <v>698722</v>
       </c>
       <c r="R14" t="n">
-        <v>7097107</v>
+        <v>7097436</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2114,31 +2129,16 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
@@ -3329,32 +3329,32 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16944669</v>
+        <v>54066365</v>
       </c>
       <c r="B25" t="n">
-        <v>80083</v>
+        <v>91819</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>698505</v>
+        <v>698397</v>
       </c>
       <c r="R25" t="n">
-        <v>7096690</v>
+        <v>7096934</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3394,12 +3394,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3413,17 +3423,17 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3441,32 +3451,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16944951</v>
+        <v>16944669</v>
       </c>
       <c r="B26" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3476,10 +3486,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>698953</v>
+        <v>698505</v>
       </c>
       <c r="R26" t="n">
-        <v>7097239</v>
+        <v>7096690</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3525,17 +3535,17 @@
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3553,32 +3563,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>54066365</v>
+        <v>16944951</v>
       </c>
       <c r="B27" t="n">
-        <v>91819</v>
+        <v>80112</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>760</v>
+        <v>6462</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3588,13 +3598,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>698397</v>
+        <v>698953</v>
       </c>
       <c r="R27" t="n">
-        <v>7096934</v>
+        <v>7097239</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3618,22 +3628,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>08:26</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>08:26</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/Vitstensberget artfynd.xlsx
+++ b/artfynd/Vitstensberget artfynd.xlsx
@@ -889,32 +889,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16944675</v>
+        <v>54066371</v>
       </c>
       <c r="B4" t="n">
-        <v>80083</v>
+        <v>90629</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>5685</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>698437</v>
+        <v>698706</v>
       </c>
       <c r="R4" t="n">
-        <v>7096700</v>
+        <v>7097116</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -954,12 +954,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -973,17 +983,17 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1001,32 +1011,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54066371</v>
+        <v>16944675</v>
       </c>
       <c r="B5" t="n">
-        <v>90629</v>
+        <v>80083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5685</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1036,13 +1046,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>698706</v>
+        <v>698437</v>
       </c>
       <c r="R5" t="n">
-        <v>7097116</v>
+        <v>7096700</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1066,22 +1076,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>10:33</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>10:33</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1095,17 +1095,17 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56606366</v>
+        <v>54066401</v>
       </c>
       <c r="B6" t="n">
-        <v>91541</v>
+        <v>56840</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1134,37 +1134,46 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>102612</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Vitstensberget, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>698672</v>
+        <v>698420</v>
       </c>
       <c r="R6" t="n">
-        <v>7097528</v>
+        <v>7097103</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1188,12 +1197,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1208,22 +1227,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>54066384</v>
+        <v>56606366</v>
       </c>
       <c r="B7" t="n">
-        <v>91195</v>
+        <v>91541</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,21 +1250,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>112</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1255,13 +1274,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>699008</v>
+        <v>698672</v>
       </c>
       <c r="R7" t="n">
-        <v>7097081</v>
+        <v>7097528</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1285,22 +1304,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>10:56</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>10:56</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1311,41 +1320,26 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54066401</v>
+        <v>54066382</v>
       </c>
       <c r="B8" t="n">
-        <v>56840</v>
+        <v>80084</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1353,43 +1347,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102612</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Vitstensberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>698420</v>
+        <v>698692</v>
       </c>
       <c r="R8" t="n">
-        <v>7097103</v>
+        <v>7096610</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1421,7 +1406,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1431,7 +1416,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1442,6 +1427,21 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1458,10 +1458,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54066366</v>
+        <v>54066384</v>
       </c>
       <c r="B9" t="n">
-        <v>82792</v>
+        <v>91195</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1469,21 +1469,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>112</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>698407</v>
+        <v>699008</v>
       </c>
       <c r="R9" t="n">
-        <v>7096950</v>
+        <v>7097081</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1580,10 +1580,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>54066382</v>
+        <v>54066366</v>
       </c>
       <c r="B10" t="n">
-        <v>80084</v>
+        <v>82792</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1591,21 +1591,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1615,10 +1615,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>698692</v>
+        <v>698407</v>
       </c>
       <c r="R10" t="n">
-        <v>7096610</v>
+        <v>7096950</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1674,17 +1674,17 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -2048,32 +2048,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>56606369</v>
+        <v>54066381</v>
       </c>
       <c r="B14" t="n">
-        <v>79012</v>
+        <v>98279</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>185</v>
+        <v>223591</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2083,13 +2083,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>698722</v>
+        <v>698676</v>
       </c>
       <c r="R14" t="n">
-        <v>7097436</v>
+        <v>7096614</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2113,12 +2113,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>07:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>07:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2133,44 +2143,44 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>54066381</v>
+        <v>56606369</v>
       </c>
       <c r="B15" t="n">
-        <v>98279</v>
+        <v>79012</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>223591</v>
+        <v>185</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2180,13 +2190,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>698676</v>
+        <v>698722</v>
       </c>
       <c r="R15" t="n">
-        <v>7096614</v>
+        <v>7097436</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2210,22 +2220,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>07:00</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>07:00</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2240,12 +2240,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2617,32 +2617,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>54066397</v>
+        <v>54066378</v>
       </c>
       <c r="B19" t="n">
-        <v>88654</v>
+        <v>79987</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>510</v>
+        <v>6456</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>698420</v>
+        <v>698638</v>
       </c>
       <c r="R19" t="n">
-        <v>7097103</v>
+        <v>7097092</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2739,32 +2739,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>54066378</v>
+        <v>54066397</v>
       </c>
       <c r="B20" t="n">
-        <v>79987</v>
+        <v>88654</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6456</v>
+        <v>510</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2774,10 +2774,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>698638</v>
+        <v>698420</v>
       </c>
       <c r="R20" t="n">
-        <v>7097092</v>
+        <v>7097103</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2833,17 +2833,17 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3329,32 +3329,32 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>54066365</v>
+        <v>16944669</v>
       </c>
       <c r="B25" t="n">
-        <v>91819</v>
+        <v>80083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>698397</v>
+        <v>698505</v>
       </c>
       <c r="R25" t="n">
-        <v>7096934</v>
+        <v>7096690</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3394,22 +3394,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>08:26</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>08:26</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3423,17 +3413,17 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3451,32 +3441,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16944669</v>
+        <v>16944951</v>
       </c>
       <c r="B26" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3486,10 +3476,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>698505</v>
+        <v>698953</v>
       </c>
       <c r="R26" t="n">
-        <v>7096690</v>
+        <v>7097239</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3535,17 +3525,17 @@
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3563,32 +3553,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16944951</v>
+        <v>54066365</v>
       </c>
       <c r="B27" t="n">
-        <v>80112</v>
+        <v>91819</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6462</v>
+        <v>760</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3598,13 +3588,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>698953</v>
+        <v>698397</v>
       </c>
       <c r="R27" t="n">
-        <v>7097239</v>
+        <v>7096934</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3628,12 +3618,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4239,10 +4239,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16944672</v>
+        <v>16945115</v>
       </c>
       <c r="B33" t="n">
-        <v>80083</v>
+        <v>79012</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4250,21 +4250,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>698956</v>
+        <v>698547</v>
       </c>
       <c r="R33" t="n">
-        <v>7097107</v>
+        <v>7096675</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4320,21 +4320,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4351,10 +4336,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16945115</v>
+        <v>16944672</v>
       </c>
       <c r="B34" t="n">
-        <v>79012</v>
+        <v>80083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4362,21 +4347,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4386,10 +4371,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>698547</v>
+        <v>698956</v>
       </c>
       <c r="R34" t="n">
-        <v>7096675</v>
+        <v>7097107</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4432,6 +4417,21 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4794,10 +4794,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>54066398</v>
+        <v>54066363</v>
       </c>
       <c r="B38" t="n">
-        <v>56849</v>
+        <v>91298</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4805,43 +4805,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100138</v>
+        <v>5321</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Oxyporus corticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
+          <t>(Fr.) Ryvarden</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Vitstensberget, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>698420</v>
+        <v>698516</v>
       </c>
       <c r="R38" t="n">
-        <v>7097103</v>
+        <v>7096676</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4873,7 +4864,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4883,7 +4874,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4894,6 +4885,21 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -4910,10 +4916,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>54066363</v>
+        <v>54066398</v>
       </c>
       <c r="B39" t="n">
-        <v>91298</v>
+        <v>56849</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4921,34 +4927,43 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5321</v>
+        <v>100138</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Oxyporus corticola</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Ryvarden</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Vitstensberget, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>698516</v>
+        <v>698420</v>
       </c>
       <c r="R39" t="n">
-        <v>7096676</v>
+        <v>7097103</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4980,7 +4995,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4990,7 +5005,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5001,21 +5016,6 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5367,10 +5367,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>54066380</v>
+        <v>54066383</v>
       </c>
       <c r="B43" t="n">
-        <v>95606</v>
+        <v>80112</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5378,21 +5378,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2813</v>
+        <v>6462</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5402,10 +5402,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>698680</v>
+        <v>698692</v>
       </c>
       <c r="R43" t="n">
-        <v>7096608</v>
+        <v>7096610</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>06:57</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>06:57</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5458,6 +5458,21 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5474,10 +5489,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>54066383</v>
+        <v>54066380</v>
       </c>
       <c r="B44" t="n">
-        <v>80112</v>
+        <v>95606</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5485,21 +5500,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6462</v>
+        <v>2813</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5509,10 +5524,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>698692</v>
+        <v>698680</v>
       </c>
       <c r="R44" t="n">
-        <v>7096610</v>
+        <v>7096608</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5544,7 +5559,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>06:57</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5554,7 +5569,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>06:57</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5565,21 +5580,6 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ44" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">

--- a/artfynd/Vitstensberget artfynd.xlsx
+++ b/artfynd/Vitstensberget artfynd.xlsx
@@ -889,32 +889,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54066371</v>
+        <v>16944675</v>
       </c>
       <c r="B4" t="n">
-        <v>90629</v>
+        <v>80083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5685</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>698706</v>
+        <v>698437</v>
       </c>
       <c r="R4" t="n">
-        <v>7097116</v>
+        <v>7096700</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -954,22 +954,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>10:33</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>10:33</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -983,17 +973,17 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1011,32 +1001,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16944675</v>
+        <v>54066371</v>
       </c>
       <c r="B5" t="n">
-        <v>80083</v>
+        <v>90629</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>5685</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1046,13 +1036,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>698437</v>
+        <v>698706</v>
       </c>
       <c r="R5" t="n">
-        <v>7096700</v>
+        <v>7097116</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1076,12 +1066,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1095,17 +1095,17 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>54066401</v>
+        <v>16944483</v>
       </c>
       <c r="B6" t="n">
-        <v>56840</v>
+        <v>91263</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1134,46 +1134,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102612</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Vitstensberget, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>698420</v>
+        <v>698376</v>
       </c>
       <c r="R6" t="n">
-        <v>7097103</v>
+        <v>7096870</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1197,22 +1188,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>08:00</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>13:00</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1223,6 +1204,21 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1239,10 +1235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56606366</v>
+        <v>54066382</v>
       </c>
       <c r="B7" t="n">
-        <v>91541</v>
+        <v>80084</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1250,21 +1246,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1274,13 +1270,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>698672</v>
+        <v>698692</v>
       </c>
       <c r="R7" t="n">
-        <v>7097528</v>
+        <v>7096610</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1304,12 +1300,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>06:37</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>06:37</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1320,26 +1326,41 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54066382</v>
+        <v>56606366</v>
       </c>
       <c r="B8" t="n">
-        <v>80084</v>
+        <v>91541</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1347,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1371,13 +1392,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>698692</v>
+        <v>698672</v>
       </c>
       <c r="R8" t="n">
-        <v>7096610</v>
+        <v>7097528</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1401,22 +1422,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>06:37</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>06:37</t>
+          <t>2014-07-03</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1427,31 +1438,16 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
@@ -1702,10 +1698,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16944483</v>
+        <v>54066401</v>
       </c>
       <c r="B11" t="n">
-        <v>91263</v>
+        <v>56840</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1713,37 +1709,46 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>102612</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Vitstensberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>698376</v>
+        <v>698420</v>
       </c>
       <c r="R11" t="n">
-        <v>7096870</v>
+        <v>7097103</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1767,12 +1772,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2014-07-03</t>
+          <t>2015-06-23</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1783,21 +1798,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -2495,32 +2495,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>54066362</v>
+        <v>54066397</v>
       </c>
       <c r="B18" t="n">
-        <v>80112</v>
+        <v>88654</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6462</v>
+        <v>510</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>698577</v>
+        <v>698420</v>
       </c>
       <c r="R18" t="n">
-        <v>7097171</v>
+        <v>7097103</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>08:46</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2589,17 +2589,17 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>54066378</v>
+        <v>54066362</v>
       </c>
       <c r="B19" t="n">
-        <v>79987</v>
+        <v>80112</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2628,21 +2628,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6456</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>698638</v>
+        <v>698577</v>
       </c>
       <c r="R19" t="n">
-        <v>7097092</v>
+        <v>7097171</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2739,32 +2739,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>54066397</v>
+        <v>54066378</v>
       </c>
       <c r="B20" t="n">
-        <v>88654</v>
+        <v>79987</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>510</v>
+        <v>6456</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2774,10 +2774,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>698420</v>
+        <v>698638</v>
       </c>
       <c r="R20" t="n">
-        <v>7097103</v>
+        <v>7097092</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2833,17 +2833,17 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3329,32 +3329,32 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16944669</v>
+        <v>16944951</v>
       </c>
       <c r="B25" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3364,10 +3364,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>698505</v>
+        <v>698953</v>
       </c>
       <c r="R25" t="n">
-        <v>7096690</v>
+        <v>7097239</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3413,17 +3413,17 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3441,32 +3441,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16944951</v>
+        <v>16944669</v>
       </c>
       <c r="B26" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>698953</v>
+        <v>698505</v>
       </c>
       <c r="R26" t="n">
-        <v>7097239</v>
+        <v>7096690</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3525,17 +3525,17 @@
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -4006,49 +4006,45 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54066402</v>
+        <v>54066393</v>
       </c>
       <c r="B31" t="n">
-        <v>56852</v>
+        <v>91245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>102613</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Vitstensberget, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>698420</v>
+        <v>698606</v>
       </c>
       <c r="R31" t="n">
-        <v>7097103</v>
+        <v>7096650</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4080,7 +4076,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4090,7 +4086,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4101,6 +4097,21 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4117,45 +4128,49 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>54066393</v>
+        <v>54066402</v>
       </c>
       <c r="B32" t="n">
-        <v>91245</v>
+        <v>56852</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>102613</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Vitstensberget, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>698606</v>
+        <v>698420</v>
       </c>
       <c r="R32" t="n">
-        <v>7096650</v>
+        <v>7097103</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4187,7 +4202,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4197,7 +4212,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4208,21 +4223,6 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4239,10 +4239,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16945115</v>
+        <v>16944672</v>
       </c>
       <c r="B33" t="n">
-        <v>79012</v>
+        <v>80083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4250,21 +4250,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>698547</v>
+        <v>698956</v>
       </c>
       <c r="R33" t="n">
-        <v>7096675</v>
+        <v>7097107</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4320,6 +4320,21 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4336,7 +4351,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16944672</v>
+        <v>16944676</v>
       </c>
       <c r="B34" t="n">
         <v>80083</v>
@@ -4371,10 +4386,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>698956</v>
+        <v>698953</v>
       </c>
       <c r="R34" t="n">
-        <v>7097107</v>
+        <v>7097239</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4448,10 +4463,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16944676</v>
+        <v>16945115</v>
       </c>
       <c r="B35" t="n">
-        <v>80083</v>
+        <v>79012</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4459,21 +4474,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4483,10 +4498,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>698953</v>
+        <v>698547</v>
       </c>
       <c r="R35" t="n">
-        <v>7097239</v>
+        <v>7096675</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4529,21 +4544,6 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -5367,10 +5367,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>54066383</v>
+        <v>54066380</v>
       </c>
       <c r="B43" t="n">
-        <v>80112</v>
+        <v>95606</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5378,21 +5378,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6462</v>
+        <v>2813</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5402,10 +5402,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>698692</v>
+        <v>698680</v>
       </c>
       <c r="R43" t="n">
-        <v>7096610</v>
+        <v>7096608</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>06:57</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>06:57</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5458,21 +5458,6 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
@@ -5489,10 +5474,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>54066380</v>
+        <v>54066383</v>
       </c>
       <c r="B44" t="n">
-        <v>95606</v>
+        <v>80112</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5500,21 +5485,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2813</v>
+        <v>6462</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5524,10 +5509,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>698680</v>
+        <v>698692</v>
       </c>
       <c r="R44" t="n">
-        <v>7096608</v>
+        <v>7096610</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5559,7 +5544,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>06:57</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5569,7 +5554,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>06:57</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5580,6 +5565,21 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
